--- a/test_data/plans.xlsx
+++ b/test_data/plans.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Programmer\Desktop\scripts\_private\test-api\app\sample_data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Programmer\Desktop\scripts\_private\finance_api\test_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="4">
   <si>
     <t>місяць плану</t>
   </si>
@@ -33,9 +33,6 @@
   </si>
   <si>
     <t>сума</t>
-  </si>
-  <si>
-    <t>відсотки</t>
   </si>
   <si>
     <t>видача</t>
@@ -361,7 +358,7 @@
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="A3" sqref="A3:C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -382,13 +379,13 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
-        <v>42005</v>
+        <v>42186</v>
       </c>
       <c r="B2" t="s">
         <v>3</v>
       </c>
       <c r="C2">
-        <v>0</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -396,7 +393,7 @@
         <v>42036</v>
       </c>
       <c r="B3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C3">
         <v>1002</v>
@@ -407,7 +404,7 @@
         <v>42064</v>
       </c>
       <c r="B4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C4">
         <v>1003</v>
@@ -418,7 +415,7 @@
         <v>42095</v>
       </c>
       <c r="B5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C5">
         <v>1004</v>
@@ -429,7 +426,7 @@
         <v>42125</v>
       </c>
       <c r="B6" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C6">
         <v>1005</v>
@@ -440,7 +437,7 @@
         <v>42156</v>
       </c>
       <c r="B7" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C7">
         <v>1006</v>
